--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,7 +86,7 @@
     <t>cabiautomation</t>
   </si>
   <si>
-    <t>virtual_cabitest21</t>
+    <t>virtual_cabitest14</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -86,7 +86,7 @@
     <t>cabiautomation</t>
   </si>
   <si>
-    <t>virtual_cabitest14</t>
+    <t>virtual_cabitest13</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -86,7 +86,7 @@
     <t>cabiautomation</t>
   </si>
   <si>
-    <t>virtual_cabitest14</t>
+    <t>virtual_cabitest21</t>
   </si>
 </sst>
 </file>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -62,21 +62,9 @@
     <t>vhostTarget</t>
   </si>
   <si>
-    <t>neohost1a@test.com</t>
-  </si>
-  <si>
     <t>blackdress19</t>
   </si>
   <si>
-    <t>neocohost1a@test.com</t>
-  </si>
-  <si>
-    <t>neoguest1ab@test.com</t>
-  </si>
-  <si>
-    <t>neoguest2ab@test.com</t>
-  </si>
-  <si>
     <t>https://pushofbiz.cliotest.com/login.php</t>
   </si>
   <si>
@@ -86,7 +74,19 @@
     <t>cabiautomation</t>
   </si>
   <si>
-    <t>virtual_cabitest13</t>
+    <t>sushanthost@test.com</t>
+  </si>
+  <si>
+    <t>sushantcohost@test.com</t>
+  </si>
+  <si>
+    <t>sushantguest1@test.com</t>
+  </si>
+  <si>
+    <t>virtual_cabitest19</t>
+  </si>
+  <si>
+    <t>michigan@na.com</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,41 +479,41 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -521,6 +521,9 @@
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="K2" r:id="rId2" display="C@bi$ush5"/>
     <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -86,7 +86,7 @@
     <t>cabiautomation</t>
   </si>
   <si>
-    <t>virtual_cabitest21</t>
+    <t>virtual_cabitest19</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -62,18 +62,12 @@
     <t>vhostTarget</t>
   </si>
   <si>
-    <t>neohost1a@test.com</t>
-  </si>
-  <si>
     <t>blackdress19</t>
   </si>
   <si>
     <t>neocohost1a@test.com</t>
   </si>
   <si>
-    <t>neoguest1ab@test.com</t>
-  </si>
-  <si>
     <t>neoguest2ab@test.com</t>
   </si>
   <si>
@@ -86,7 +80,13 @@
     <t>cabiautomation</t>
   </si>
   <si>
-    <t>virtual_cabitest14</t>
+    <t>virtual_cabitest21</t>
+  </si>
+  <si>
+    <t>neoguest3ab@test.com</t>
+  </si>
+  <si>
+    <t>neohost2a@test.com</t>
   </si>
 </sst>
 </file>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,41 +479,41 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -521,6 +521,8 @@
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="K2" r:id="rId2" display="C@bi$ush5"/>
     <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -65,12 +65,6 @@
     <t>blackdress19</t>
   </si>
   <si>
-    <t>neocohost1a@test.com</t>
-  </si>
-  <si>
-    <t>neoguest2ab@test.com</t>
-  </si>
-  <si>
     <t>https://pushofbiz.cliotest.com/login.php</t>
   </si>
   <si>
@@ -83,10 +77,16 @@
     <t>virtual_cabitest21</t>
   </si>
   <si>
-    <t>neoguest3ab@test.com</t>
-  </si>
-  <si>
-    <t>neohost2a@test.com</t>
+    <t>sushanthost@test.com</t>
+  </si>
+  <si>
+    <t>sushantcohost@test.com</t>
+  </si>
+  <si>
+    <t>sushantguest1@test.com</t>
+  </si>
+  <si>
+    <t>michigan@na.com</t>
   </si>
 </sst>
 </file>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,13 +480,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -498,31 +498,32 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="K2" r:id="rId2" display="C@bi$ush5"/>
-    <hyperlink ref="I2" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="A2" r:id="rId5"/>
+    <hyperlink ref="K2" r:id="rId1" display="C@bi$ush5"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="G2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>hostessMail</t>
   </si>
@@ -50,31 +50,7 @@
     <t>guestUninvitedPass</t>
   </si>
   <si>
-    <t>ofbizURL</t>
-  </si>
-  <si>
-    <t>ofbizUser</t>
-  </si>
-  <si>
-    <t>ofbizPass</t>
-  </si>
-  <si>
-    <t>vhostTarget</t>
-  </si>
-  <si>
     <t>blackdress19</t>
-  </si>
-  <si>
-    <t>https://pushofbiz.cliotest.com/login.php</t>
-  </si>
-  <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>cabiautomation</t>
-  </si>
-  <si>
-    <t>virtual_cabitest21</t>
   </si>
   <si>
     <t>sushanthost@test.com</t>
@@ -418,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +416,7 @@
     <col min="12" max="12" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,65 +441,39 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="C@bi$ush5"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="C2" r:id="rId5"/>
-    <hyperlink ref="G2" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\katalon\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422EA31C-6098-4F4C-997B-0E5ADE9F637A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="microsite" sheetId="1" r:id="rId1"/>
@@ -53,22 +54,22 @@
     <t>blackdress19</t>
   </si>
   <si>
-    <t>sushanthost@test.com</t>
-  </si>
-  <si>
-    <t>sushantcohost@test.com</t>
-  </si>
-  <si>
-    <t>sushantguest1@test.com</t>
-  </si>
-  <si>
     <t>michigan@na.com</t>
+  </si>
+  <si>
+    <t>vishalhost@test.com</t>
+  </si>
+  <si>
+    <t>vishalcohost@test.com</t>
+  </si>
+  <si>
+    <t>vishalguest1@test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,11 +394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,25 +445,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
@@ -470,10 +471,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1" display="sushantguest1@test.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="sushanthost@test.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" display="sushantcohost@test.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -53,16 +53,16 @@
     <t>blackdress19</t>
   </si>
   <si>
-    <t>sushanthost@test.com</t>
-  </si>
-  <si>
-    <t>sushantcohost@test.com</t>
-  </si>
-  <si>
-    <t>sushantguest1@test.com</t>
-  </si>
-  <si>
     <t>michigan@na.com</t>
+  </si>
+  <si>
+    <t>vishalhost@test.com</t>
+  </si>
+  <si>
+    <t>vishalcohost@test.com</t>
+  </si>
+  <si>
+    <t>vishalguest1@test.com</t>
   </si>
 </sst>
 </file>
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,25 +444,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
@@ -470,9 +470,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" display="sushantguest1@test.com"/>
     <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId3" display="sushantcohost@test.com"/>
     <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>vishalhost@test.com</t>
-  </si>
-  <si>
-    <t>vishalcohost@test.com</t>
-  </si>
-  <si>
-    <t>vishalguest1@test.com</t>
+    <t>sushanthost@test.com</t>
+  </si>
+  <si>
+    <t>sushantcohost@test.com</t>
+  </si>
+  <si>
+    <t>sushantguest1@test.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,9 +470,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="sushantguest1@test.com"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3" display="sushantcohost@test.com"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2" display="vishalhost@test.com"/>
+    <hyperlink ref="C2" r:id="rId3"/>
     <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>sushanthost@test.com</t>
-  </si>
-  <si>
-    <t>sushantcohost@test.com</t>
-  </si>
-  <si>
-    <t>sushantguest1@test.com</t>
+    <t>vishalhost@test.com</t>
+  </si>
+  <si>
+    <t>vishalcohost@test.com</t>
+  </si>
+  <si>
+    <t>vishalguest1@test.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,9 +470,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2" display="vishalhost@test.com"/>
-    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" display="sushantguest1@test.com"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3" display="sushantcohost@test.com"/>
     <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>hostessMail</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>sushantguest1@test.com</t>
+  </si>
+  <si>
+    <t>guest2Mail</t>
+  </si>
+  <si>
+    <t>guest2Pass</t>
+  </si>
+  <si>
+    <t>sushantguest2@test.com</t>
   </si>
 </sst>
 </file>
@@ -394,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +425,7 @@
     <col min="12" max="12" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +450,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -465,6 +480,12 @@
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -474,6 +495,7 @@
     <hyperlink ref="A2" r:id="rId2" display="vishalhost@test.com"/>
     <hyperlink ref="C2" r:id="rId3"/>
     <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>sushanthost@test.com</t>
-  </si>
-  <si>
-    <t>sushantcohost@test.com</t>
-  </si>
-  <si>
-    <t>sushantguest1@test.com</t>
+    <t>neoguest1@test.com</t>
+  </si>
+  <si>
+    <t>neohost1@test.com</t>
+  </si>
+  <si>
+    <t>neocohost1@test.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,19 +444,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -470,8 +470,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2" display="vishalhost@test.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="sushantguest1@test.com"/>
+    <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="C2" r:id="rId3"/>
     <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>sushanthost@test.com</t>
-  </si>
-  <si>
-    <t>sushantcohost@test.com</t>
-  </si>
-  <si>
-    <t>sushantguest1@test.com</t>
+    <t>vishalhost@test.com</t>
+  </si>
+  <si>
+    <t>vishalcohost@test.com</t>
+  </si>
+  <si>
+    <t>vishalguest1@test.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,9 +470,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2" display="vishalhost@test.com"/>
-    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" display="sushantguest1@test.com"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3" display="sushantcohost@test.com"/>
     <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>neoguest1@test.com</t>
-  </si>
-  <si>
-    <t>neohost1@test.com</t>
-  </si>
-  <si>
-    <t>neocohost1@test.com</t>
+    <t>vishalhost@test.com</t>
+  </si>
+  <si>
+    <t>vishalcohost@test.com</t>
+  </si>
+  <si>
+    <t>vishalguest1@test.com</t>
   </si>
 </sst>
 </file>
@@ -444,19 +444,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -472,7 +472,7 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="sushantguest1@test.com"/>
     <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId3" display="sushantcohost@test.com"/>
     <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>vishalhost@test.com</t>
-  </si>
-  <si>
-    <t>vishalcohost@test.com</t>
-  </si>
-  <si>
-    <t>vishalguest1@test.com</t>
+    <t>sushanthost@test.com</t>
+  </si>
+  <si>
+    <t>sushantcohost@test.com</t>
+  </si>
+  <si>
+    <t>sushantguest1@test.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,9 +470,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="sushantguest1@test.com"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3" display="sushantcohost@test.com"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2" display="vishalhost@test.com"/>
+    <hyperlink ref="C2" r:id="rId3"/>
     <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>vishalhost@test.com</t>
-  </si>
-  <si>
-    <t>vishalcohost@test.com</t>
-  </si>
-  <si>
-    <t>vishalguest1@test.com</t>
+    <t>sushanthost@test.com</t>
+  </si>
+  <si>
+    <t>sushantcohost@test.com</t>
+  </si>
+  <si>
+    <t>sushantguest1@test.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,9 +470,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="sushantguest1@test.com"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3" display="sushantcohost@test.com"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2" display="vishalhost@test.com"/>
+    <hyperlink ref="C2" r:id="rId3"/>
     <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>sushanthost@test.com</t>
-  </si>
-  <si>
-    <t>sushantcohost@test.com</t>
-  </si>
-  <si>
-    <t>sushantguest1@test.com</t>
+    <t>host-test@test.com</t>
+  </si>
+  <si>
+    <t>cohost-test@test.com</t>
+  </si>
+  <si>
+    <t>guest1-test@test.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2" display="vishalhost@test.com"/>
+    <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="C2" r:id="rId3"/>
     <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>host-test@test.com</t>
-  </si>
-  <si>
-    <t>cohost-test@test.com</t>
-  </si>
-  <si>
     <t>guest1-test@test.com</t>
+  </si>
+  <si>
+    <t>ahostess-test@test.com</t>
+  </si>
+  <si>
+    <t>bcohost-test@test.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,19 +444,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>host-test@test.com</t>
-  </si>
-  <si>
-    <t>cohost-test@test.com</t>
-  </si>
-  <si>
     <t>guest1-test@test.com</t>
+  </si>
+  <si>
+    <t>bcohost-test@test.com</t>
+  </si>
+  <si>
+    <t>ahostess-test@test.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -456,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -471,7 +471,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId2" display="host-test@test.com"/>
     <hyperlink ref="C2" r:id="rId3"/>
     <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>guest1-test@test.com</t>
-  </si>
-  <si>
-    <t>bcohost-test@test.com</t>
-  </si>
-  <si>
-    <t>ahostess-test@test.com</t>
+    <t>ahostess-test1@test.com</t>
+  </si>
+  <si>
+    <t>bcohost-test1@test.com</t>
+  </si>
+  <si>
+    <t>guest1-test1@test.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -456,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -471,7 +471,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2" display="host-test@test.com"/>
+    <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="C2" r:id="rId3"/>
     <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>

--- a/KatalonProjects/micrositeData.xlsx
+++ b/KatalonProjects/micrositeData.xlsx
@@ -56,13 +56,13 @@
     <t>michigan@na.com</t>
   </si>
   <si>
-    <t>ahostess-test1@test.com</t>
-  </si>
-  <si>
-    <t>bcohost-test1@test.com</t>
-  </si>
-  <si>
-    <t>guest1-test1@test.com</t>
+    <t>ahostess-test@test.com</t>
+  </si>
+  <si>
+    <t>bcohost-test@test.com</t>
+  </si>
+  <si>
+    <t>guest1-test@test.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
